--- a/CURE_Project1/emissions_from_pandas.xlsx
+++ b/CURE_Project1/emissions_from_pandas.xlsx
@@ -1,43 +1,100 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aeabd5302fd7aa23/Documents/GitHub/ENDG_319_Files/CURE_Project1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_2BB1D69C5BD0537A2F173D13553088B35299F753" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14AC66AA-390E-494A-9CE7-19CE4B698AF1}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$K$2:$K$31</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$L$2:$L$31</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$K$2:$K$31</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$L$2:$L$31</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="9">
+  <si>
+    <t>Low Altitude</t>
+  </si>
+  <si>
+    <t>High Altitude</t>
+  </si>
+  <si>
+    <t>Low altitude</t>
+  </si>
+  <si>
+    <t>High altitudes</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,94 +103,759 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Comparative Boxplot</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Comparative Boxplot</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{2F6B0F35-3342-4B09-A2CD-7D49F7AA1493}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{590CCFA8-6904-B44C-5BCD-F0F52C55D55E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5303520" y="110490"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>This chart isn’t available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,197 +1142,494 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Low Altitude</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>High Altitude</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>1.5</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>7.59</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <f>COUNT(B2:B16)</f>
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <f>COUNT(C2:C16)</f>
+        <v>15</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1.48</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>2.06</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <f>AVERAGE(B2:B16)</f>
+        <v>3.7946666666666666</v>
+      </c>
+      <c r="H3">
+        <f>AVERAGE(C2:C16)</f>
+        <v>6.2946666666666662</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>2.98</v>
       </c>
-      <c r="C4" t="n">
-        <v>8.859999999999999</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="C4">
+        <v>8.86</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <f>_xlfn.STDEV.S(B2:B16)</f>
+        <v>3.0208013758572325</v>
+      </c>
+      <c r="H4">
+        <f>_xlfn.STDEV.S(C2:C16)</f>
+        <v>3.8905212039128192</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1.4</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>8.67</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <f>MIN(B2:B16)</f>
+        <v>0.25</v>
+      </c>
+      <c r="H5">
+        <f>MIN(C2:D16)</f>
+        <v>1.5</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>3.12</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>5.61</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="F6" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="G6">
+        <f>_xlfn.PERCENTILE.EXC(B2:B16,0.25)</f>
+        <v>1.37</v>
+      </c>
+      <c r="H6">
+        <f>_xlfn.PERCENTILE.EXC(C2:C16,0.25)</f>
+        <v>3.57</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>0.25</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>6.28</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="F7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <f>MEDIAN(B2:B16)</f>
+        <v>2.98</v>
+      </c>
+      <c r="H7">
+        <f>MEDIAN(C2:C16)</f>
+        <v>6.07</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>6.73</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>4.04</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="F8" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="G8">
+        <f>_xlfn.PERCENTILE.EXC(B2:B16,0.75)</f>
+        <v>6.96</v>
+      </c>
+      <c r="H8">
+        <f>_xlfn.PERCENTILE.EXC(C2:C16,0.75)</f>
+        <v>8.67</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>5.3</v>
       </c>
-      <c r="C9" t="n">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="C9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="G9">
+        <f>MAX(B2:B16)</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H9">
+        <f>MAX(C2:C16)</f>
+        <v>17.11</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C10">
         <v>9.52</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="K10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>6.96</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="K11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>7.21</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>6.07</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="K12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>0.87</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>17.11</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="K13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>1.06</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>3.57</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="K14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>7.39</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>2.68</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="K15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>7.39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>1.37</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
+        <v>6.46</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="17" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="18" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="19" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="20" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="21" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="22" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="23" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="24" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>9.52</v>
+      </c>
+    </row>
+    <row r="26" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="28" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>17.11</v>
+      </c>
+    </row>
+    <row r="29" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="30" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="31" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31">
         <v>6.46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/CURE_Project1/emissions_from_pandas.xlsx
+++ b/CURE_Project1/emissions_from_pandas.xlsx
@@ -1,43 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aeabd5302fd7aa23/Documents/GitHub/ENDG_319_Files/CURE_Project1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2BB1D69C5BB0D637AF743F13553088B35299F753" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C366E352-8344-4324-B646-5A331BE37119}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,94 +50,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,197 +357,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Low Altitude</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>High Altitude</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>7.59</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8.859999999999999</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>8.67</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5.61</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6.28</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4.04</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9.52</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="C12" t="n">
-        <v>6.07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="C13" t="n">
-        <v>17.11</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3.57</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="C16" t="n">
-        <v>6.46</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>